--- a/Docs/SonarCloud-SJC-MO.xlsx
+++ b/Docs/SonarCloud-SJC-MO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cunnings\Documents\GitHub\Projects\Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cunnings\Documents\GitHub\Projects\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SonarCould Analysis" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MO DB'!$A$1:$L$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'MO SCHEDULER DB'!$A$1:$L$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'MO WEB'!$A$1:$L$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'MO WEB PORTAL'!$A$1:$Q$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'MO WEB PORTAL'!$A$1:$Q$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="675">
   <si>
     <t>Project</t>
   </si>
@@ -1865,6 +1865,285 @@
   </si>
   <si>
     <t>Ensure refactoring covers all instances.</t>
+  </si>
+  <si>
+    <t>Make sure that using a regular expression is safe here</t>
+  </si>
+  <si>
+    <t>Using regular expressions is security-sensitive</t>
+  </si>
+  <si>
+    <t>Review use of regular expressions. Evaluating such regular expressions opens the door to Regular expression Denial of Service (ReDoS) attacks. In the context of a web application, attackers can force the web server to spend all of its resources evaluating regular expressions thereby making the service inaccessible to genuine users.</t>
+  </si>
+  <si>
+    <t>To Review - Denial of Service</t>
+  </si>
+  <si>
+    <t>Make sure that permissions are controlled safely when "user" is specified in code</t>
+  </si>
+  <si>
+    <t>Controlling permissions is security-sensitive</t>
+  </si>
+  <si>
+    <t>Review how permissions are handled and accessed in code. Attackers can only damage what they have access to. Thus limiting their access is a good way to prevent them from wreaking havoc, but it has to be done properly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Review - Others </t>
+  </si>
+  <si>
+    <t>Make sure that using this pseudorandom number generator is safe here</t>
+  </si>
+  <si>
+    <t>Using pseudorandom number generators (PRNGs) is security-sensitive</t>
+  </si>
+  <si>
+    <t>Convert to truly random number generation. When software generates predictable values in a context requiring unpredictability, it may be possible for an attacker to guess the next value that will be generated, and use this guess to impersonate another user or access sensitive information.</t>
+  </si>
+  <si>
+    <t>To Review - Weak Cryptography</t>
+  </si>
+  <si>
+    <t>Make sure that this dynamic injection or execution of code is safe.</t>
+  </si>
+  <si>
+    <t>Dynamically executing code is security-sensitive</t>
+  </si>
+  <si>
+    <t>Dynamic code should be scrutinised for security. Some APIs enable the execution of dynamic code by providing it as strings at runtime. These APIs might be useful in some very specific meta-programming use-cases. However most of the time their use is frowned upon as they also increase the risk of Injected Code</t>
+  </si>
+  <si>
+    <t>Writing cookies is security-sensitive</t>
+  </si>
+  <si>
+    <t>Ensure all security measures are in place for cookies. Attackers can use widely-available tools to read cookies, sensitive information written by the server will be exposed.</t>
+  </si>
+  <si>
+    <t>To Review - Insecure Configuration</t>
+  </si>
+  <si>
+    <t>To Review - Object and Code Injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that cookiea are written safely, and make sure creating cookies without setting the 'Secure' property is safe </t>
+  </si>
+  <si>
+    <t>Change this condition so that it does not always evaluate to 'true'; some subsequent code is never executed.</t>
+  </si>
+  <si>
+    <t>Review the conditions. Conditional expressions which are always true or false can lead to dead code. Such code is always buggy and should never be used in production.</t>
+  </si>
+  <si>
+    <t>Pointer is null on at least one execution path</t>
+  </si>
+  <si>
+    <t>Ensure pointers are not NULL before dereferencing them. A reference to null should never be dereferenced/accessed. Doing so will cause a NullReferenceException to be thrown. At best, such an exception will cause abrupt program termination. At worst, it could expose debugging information that would be useful to an attacker, or it could allow an attacker to bypass security measures.</t>
+  </si>
+  <si>
+    <t>Make fields 'private' and encapsulate it in a 'public' property.</t>
+  </si>
+  <si>
+    <t>By using private fields and public properties (set and get), unauthorized modifications are prevented. Properties also benefit from additional protection (security) features such as Link Demands.</t>
+  </si>
+  <si>
+    <t>Check for unexpected consequences of any changes made</t>
+  </si>
+  <si>
+    <t>Make sure that command line arguments are used safely here</t>
+  </si>
+  <si>
+    <t>Using command line arguments is security-sensitive</t>
+  </si>
+  <si>
+    <t>Review any command line arguments in play in production code. Command line arguments can be dangerous just like any other user input. They should never be used without being first validated and sanitized.</t>
+  </si>
+  <si>
+    <t>Make sure that permissions are used safely here</t>
+  </si>
+  <si>
+    <t>Ensure permissions are accurate for users and used properly in code. Attackers can only damage what they have access to. Thus limiting their access is a good way to prevent them from wreaking havoc, but it has to be done properly.</t>
+  </si>
+  <si>
+    <t>To review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To review </t>
+  </si>
+  <si>
+    <t>Remove this useless assignment to a local variable</t>
+  </si>
+  <si>
+    <t>Variables should either be used or be removed. A dead store happens when a local variable is assigned a value that is not read by any subsequent instruction. Calculating or retrieving a value only to then overwrite it or throw it away, could indicate a serious error in the code. Even if it's not an error, it is at best a waste of resources. Therefore all calculated values should be used.</t>
+  </si>
+  <si>
+    <t>Remove the field and declare it as a local variable in the relevant methods.</t>
+  </si>
+  <si>
+    <t>Make field 'readonly'.</t>
+  </si>
+  <si>
+    <t>readonly fields can only be assigned in a class constructor. If a class has a field that's not marked readonly but is only set in the constructor, it could cause confusion about the field's intended use. To avoid confusion, such fields should be marked readonly to make their intended use explicit, and to prevent future maintainers from inadvertently changing their use.</t>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 86 to the 15 allowed</t>
+  </si>
+  <si>
+    <t>SonarCloud estimates that the method is overly complex. Review.</t>
+  </si>
+  <si>
+    <t>Use 'Count' property here instead</t>
+  </si>
+  <si>
+    <t>Variables should either be used or be removed. If a local variable is declared but not used, it is dead code and should be removed. Doing so will improve maintainability because developers will not wonder what the variable is used for.</t>
+  </si>
+  <si>
+    <t>Add at least one prtotect constructor. Utility classes, which are collections of static members, are not meant to be instantiated.
+C# adds an implicit public constructor to every class which does not explicitly define at least one constructor. Hence, at least one protected constructor should be defined if you wish to subclass this utility class.</t>
+  </si>
+  <si>
+    <t>Rename parameter to match the interface declaration.</t>
+  </si>
+  <si>
+    <t>Bring parameter names into line. The name of a parameter in an externally visible method override does not match the name of the parameter in the base declaration of the method, or the name of the parameter in the interface declaration of the method or the name of any other partial definition.</t>
+  </si>
+  <si>
+    <t>Use '.Any()' to test whether this 'IEnumerable&lt;string&gt;' is empty or not</t>
+  </si>
+  <si>
+    <t>Using .Count() to test for emptiness works, but using .Any() makes the intent clearer, and the code more readable</t>
+  </si>
+  <si>
+    <t>Constructor has 8 parameters, which is greater than the 7 authorized</t>
+  </si>
+  <si>
+    <t>Review the number of constructor parameters. A long parameter list can indicate that a new structure should be created to wrap the numerous parameters or that the function is doing too many things.</t>
+  </si>
+  <si>
+    <t>emove this assignment of the field or initialize it statically</t>
+  </si>
+  <si>
+    <t>Rename variable which hides the field with the same name</t>
+  </si>
+  <si>
+    <t>Local variables should not shadow class fields</t>
+  </si>
+  <si>
+    <t>Fix this implementation of 'IDisposable' to conform to the dispose pattern.</t>
+  </si>
+  <si>
+    <t>Check implementation if Idisposable. The IDisposable interface is a mechanism to release unmanaged resources, if not implemented correctly this could result in resource leaks or more severe bugs.</t>
+  </si>
+  <si>
+    <t>Remove the code. Programmers should not comment out code as it bloats programs and reduces readability.
+Unused code should be deleted and can be retrieved from source control history if required.</t>
+  </si>
+  <si>
+    <t>Use a StringBuilder</t>
+  </si>
+  <si>
+    <t>Strings should not be concatenated using '+' in a loop</t>
+  </si>
+  <si>
+    <t>StringBuilder is more efficient than string concatenation, especially when the operator is repeated over and over as in loops.</t>
+  </si>
+  <si>
+    <t>Remove the unused private field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As with variables, get rid of unused fields. private or internal types or private members that are never executed or referenced are dead code: unnecessary, inoperative code that should be removed. </t>
+  </si>
+  <si>
+    <t>Do not call 'GC.SuppressFinalize'</t>
+  </si>
+  <si>
+    <t>"GC.SuppressFinalize" should not be called</t>
+  </si>
+  <si>
+    <t>GC.SuppressFinalize requests that the system not call the finalizer for the specified object. This should only be done when implementing Dispose as part of the Dispose Pattern.</t>
+  </si>
+  <si>
+    <t>Initialize all 'static fields' inline and remove the 'static constructor'.</t>
+  </si>
+  <si>
+    <t>"static" fields should be initialized inline</t>
+  </si>
+  <si>
+    <t>When a static constructor serves no other purpose that initializing static fields, it comes with an unnecessary performance cost because the compiler generates a check before each static method or instance constructor invocation.
+Instead, inline initialization is highly recommended.</t>
+  </si>
+  <si>
+    <t>Change this condition so that it does not always evaluate to 'true'.</t>
+  </si>
+  <si>
+    <t>Consider the naming convention rules being used. Shared naming conventions allow teams to collaborate efficiently. This rule checks whether or not type names are using PascalCase. To reduce noise, two consecutive upper case characters are allowed unless they form the whole type name.</t>
+  </si>
+  <si>
+    <t>Remove this set, which updates a 'static' field from an instance method</t>
+  </si>
+  <si>
+    <t>Instance members should not write to "static" fields</t>
+  </si>
+  <si>
+    <t>Correctly updating a static field from a non-static method is tricky to get right and could easily lead to bugs if there are multiple class instances and/or multiple threads in play.</t>
+  </si>
+  <si>
+    <t>Runtime type checking should be simplified</t>
+  </si>
+  <si>
+    <t>Depending on whether the type is returned by a GetType() or typeof() call, the IsAssignableFrom() and IsInstanceOfType() might be simplified</t>
+  </si>
+  <si>
+    <t>Use the 'is' operator instead to check the type</t>
+  </si>
+  <si>
+    <t>Remove this unused method parameter</t>
+  </si>
+  <si>
+    <t>Ensure all calling events know that the paramater has been removed.</t>
+  </si>
+  <si>
+    <t>Add logic to this catch clause or eliminate it and rethrow the exception automatically.</t>
+  </si>
+  <si>
+    <t>Add specific error handling code or remove the error handler: A catch clause that only rethrows the caught exception has the same effect as omitting the catch altogether and letting it bubble up automatically, but with more code and the additional detriment of leaving maintainers scratching their heads.</t>
+  </si>
+  <si>
+    <t>Changing the error handling may alter the funcionality.</t>
+  </si>
+  <si>
+    <t>Replace this 'for' loop with a 'while' loop</t>
+  </si>
+  <si>
+    <t>A non-finite loop should be implemented with a while (open ended) rather than a limiting FOR with only partial definition. When only the condition expression is defined in a for loop, and the initialization and increment expressions are missing, a while loop should be used instead to increase readability.</t>
+  </si>
+  <si>
+    <t>If multiple conditions can be checked in one pass, they should be. Merging collapsible if statements increases the code's readability.</t>
+  </si>
+  <si>
+    <t>Empty methods - Add a nested comment explaining why this method is empty, throw a 'NotSupportedException' or complete the implementation</t>
+  </si>
+  <si>
+    <t>Critcal</t>
+  </si>
+  <si>
+    <t>Methods should not be empty besides a blank override - consider design review</t>
+  </si>
+  <si>
+    <t>There are several reasons for a method not to have a method body:
+It is an unintentional omission, and should be fixed.
+It is not yet, or never will be, supported. In this case a NotSupportedException should be thrown.
+The method is an intentionally-blank override. In this case a nested comment should explain the reason for the blank override.</t>
+  </si>
+  <si>
+    <t>Either remove or fill this block of code.</t>
+  </si>
+  <si>
+    <t>Most of the time a block of code is empty when a piece of code is really missing. So such empty block must be either filled or removed.</t>
+  </si>
+  <si>
+    <t>Change the visibility of the field or make it 'const' or 'readonly'.</t>
+  </si>
+  <si>
+    <t>A static field that is neither constant nor read-only is not thread-safe. Correctly accessing these fields from different threads needs synchronization with locks. Improper synchronization may lead to unexpected results, thus publicly visible static fields are best suited for storing non-changing data shared by many consumers. To enforce this intent, these fields should be marked readonly or converted to constants.</t>
   </si>
 </sst>
 </file>
@@ -3382,7 +3661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5952,16 +6231,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C72" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="12" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
@@ -5978,7 +6256,7 @@
     <col min="18" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6014,7 +6292,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>56</v>
       </c>
@@ -6043,7 +6321,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
@@ -6072,7 +6350,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>56</v>
       </c>
@@ -6101,7 +6379,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>56</v>
       </c>
@@ -6130,7 +6408,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
@@ -6162,7 +6440,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>56</v>
       </c>
@@ -6191,7 +6469,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>56</v>
       </c>
@@ -6202,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>56</v>
       </c>
@@ -6231,7 +6509,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>56</v>
       </c>
@@ -6260,7 +6538,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>56</v>
       </c>
@@ -6289,7 +6567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>56</v>
       </c>
@@ -6318,7 +6596,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
@@ -6347,7 +6625,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
@@ -6376,7 +6654,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>56</v>
       </c>
@@ -6404,11 +6682,8 @@
       <c r="J15" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
@@ -6440,7 +6715,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>56</v>
       </c>
@@ -6472,7 +6747,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>56</v>
       </c>
@@ -6504,7 +6779,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
@@ -6533,7 +6808,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>159</v>
       </c>
@@ -6565,7 +6840,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>159</v>
       </c>
@@ -6597,7 +6872,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>159</v>
       </c>
@@ -6626,7 +6901,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
@@ -6655,7 +6930,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
@@ -6687,7 +6962,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
@@ -6719,7 +6994,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
@@ -6748,7 +7023,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>57</v>
       </c>
@@ -6780,7 +7055,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
@@ -6812,7 +7087,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>57</v>
       </c>
@@ -6841,7 +7116,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>57</v>
       </c>
@@ -6870,7 +7145,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>57</v>
       </c>
@@ -6899,7 +7174,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>57</v>
       </c>
@@ -6928,7 +7203,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>57</v>
       </c>
@@ -6957,7 +7232,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>57</v>
       </c>
@@ -6986,7 +7261,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -7015,7 +7290,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
@@ -7044,7 +7319,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>57</v>
       </c>
@@ -7073,7 +7348,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>57</v>
       </c>
@@ -7102,7 +7377,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>57</v>
       </c>
@@ -7131,7 +7406,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>57</v>
       </c>
@@ -7163,7 +7438,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>57</v>
       </c>
@@ -7192,7 +7467,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>57</v>
       </c>
@@ -7221,7 +7496,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>57</v>
       </c>
@@ -7250,7 +7525,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>57</v>
       </c>
@@ -7279,7 +7554,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>57</v>
       </c>
@@ -7308,7 +7583,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>57</v>
       </c>
@@ -7337,7 +7612,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>57</v>
       </c>
@@ -7366,7 +7641,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>57</v>
       </c>
@@ -7395,7 +7670,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>57</v>
       </c>
@@ -7427,7 +7702,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>57</v>
       </c>
@@ -7456,7 +7731,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>57</v>
       </c>
@@ -7485,7 +7760,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>57</v>
       </c>
@@ -7517,7 +7792,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>57</v>
       </c>
@@ -7546,7 +7821,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>57</v>
       </c>
@@ -7575,7 +7850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>57</v>
       </c>
@@ -7604,7 +7879,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>57</v>
       </c>
@@ -7633,7 +7908,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
@@ -7662,7 +7937,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>57</v>
       </c>
@@ -8126,7 +8401,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>57</v>
       </c>
@@ -8155,19 +8430,153 @@
         <v>187</v>
       </c>
     </row>
+    <row r="75" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="D75" s="12">
+        <v>349</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="D76" s="12">
+        <v>38</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="D77" s="12">
+        <v>8</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="D78" s="12">
+        <v>3</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="D79" s="12">
+        <v>2</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q74">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Code Smell"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Minor"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q79"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8175,15 +8584,1089 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="26.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="12">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="D5" s="12">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="12">
+        <v>44</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="12">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="12">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="12">
+        <v>22</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="12">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="12">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="12">
+        <v>13</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="12">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="12">
+        <v>10</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="12">
+        <v>9</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="12">
+        <v>9</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="12">
+        <v>8</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="12">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="12">
+        <v>5</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="12">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="12">
+        <v>5</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="12">
+        <v>4</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="12">
+        <v>3</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="12">
+        <v>3</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="12">
+        <v>3</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
